--- a/Dataset Lists.xlsx
+++ b/Dataset Lists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr updateLinks="never"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mazarsfr-my.sharepoint.com/personal/cao-tri_do_mazars_fr/Documents/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="11_AD4D9D64A577C15A4A5418BEC0DE5E385ADEDD80" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3BD51D23-5C3B-4CB4-9F37-3CB7B831B51E}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="11_AD4D9D64A577C15A4A5418BEC0DE5E385ADEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9474FE97-B1D0-4971-BE68-AF83641D20D1}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>Folder Name</t>
   </si>
@@ -216,6 +216,18 @@
   <si>
     <t># Power BI
 # Tableau Software</t>
+  </si>
+  <si>
+    <t>Airline Passenger Satisfaction Analytics</t>
+  </si>
+  <si>
+    <t>Emergency Room Analytics</t>
+  </si>
+  <si>
+    <t>Google Playstore Analytics</t>
+  </si>
+  <si>
+    <t>Challenge from DataPears</t>
   </si>
 </sst>
 </file>
@@ -408,6 +420,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -428,27 +461,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,7 +748,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,45 +767,45 @@
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="11" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="12" t="s">
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="13" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="15"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="22"/>
     </row>
     <row r="2" spans="1:27" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -802,73 +814,73 @@
       <c r="D2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="21" t="s">
+      <c r="Y2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="21" t="s">
+      <c r="Z2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="21" t="s">
+      <c r="AA2" s="14" t="s">
         <v>28</v>
       </c>
     </row>
@@ -884,39 +896,39 @@
       </c>
     </row>
     <row r="4" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
     </row>
     <row r="5" spans="1:27" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1547,10 +1559,18 @@
       <c r="AA22" s="6"/>
     </row>
     <row r="23" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -1576,10 +1596,18 @@
       <c r="AA23" s="6"/>
     </row>
     <row r="24" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -1605,10 +1633,18 @@
       <c r="AA24" s="6"/>
     </row>
     <row r="25" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
